--- a/Deni/forecast_results.xlsx
+++ b/Deni/forecast_results.xlsx
@@ -483,10 +483,10 @@
         <v>55369.17590210657</v>
       </c>
       <c r="E2" t="n">
-        <v>44930.26855716616</v>
+        <v>44391.8266658255</v>
       </c>
       <c r="F2" t="n">
-        <v>66721.86206249303</v>
+        <v>66266.00830435545</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
         <v>55060.01340439203</v>
       </c>
       <c r="E3" t="n">
-        <v>44398.22596869351</v>
+        <v>45120.27773796309</v>
       </c>
       <c r="F3" t="n">
-        <v>65637.25051111238</v>
+        <v>66354.05823376916</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         <v>56694.56411332625</v>
       </c>
       <c r="E4" t="n">
-        <v>46597.50511304486</v>
+        <v>45447.90840130667</v>
       </c>
       <c r="F4" t="n">
-        <v>67375.64729760399</v>
+        <v>67082.77537380763</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +543,10 @@
         <v>54653.21476136189</v>
       </c>
       <c r="E5" t="n">
-        <v>44435.86010529261</v>
+        <v>43668.07867079134</v>
       </c>
       <c r="F5" t="n">
-        <v>65272.21463749409</v>
+        <v>65084.7744057192</v>
       </c>
     </row>
     <row r="6">
@@ -563,10 +563,10 @@
         <v>57897.74599869234</v>
       </c>
       <c r="E6" t="n">
-        <v>47088.86007463806</v>
+        <v>47317.37791390431</v>
       </c>
       <c r="F6" t="n">
-        <v>68616.66474188858</v>
+        <v>68191.96377091136</v>
       </c>
     </row>
     <row r="7">
@@ -583,10 +583,10 @@
         <v>57950.84796015715</v>
       </c>
       <c r="E7" t="n">
-        <v>46938.62345241527</v>
+        <v>47730.05529990753</v>
       </c>
       <c r="F7" t="n">
-        <v>68623.86451252132</v>
+        <v>67698.4768367744</v>
       </c>
     </row>
     <row r="8">
@@ -603,10 +603,10 @@
         <v>57616.98923374909</v>
       </c>
       <c r="E8" t="n">
-        <v>47989.60934057011</v>
+        <v>47408.88760496229</v>
       </c>
       <c r="F8" t="n">
-        <v>67508.72797158279</v>
+        <v>68313.15089879716</v>
       </c>
     </row>
     <row r="9">
@@ -623,10 +623,10 @@
         <v>58378.75972874323</v>
       </c>
       <c r="E9" t="n">
-        <v>47328.45744067144</v>
+        <v>47639.57176423361</v>
       </c>
       <c r="F9" t="n">
-        <v>69534.82626708581</v>
+        <v>69058.00676665467</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +643,10 @@
         <v>58926.58873149651</v>
       </c>
       <c r="E10" t="n">
-        <v>48161.6804621077</v>
+        <v>48229.81634119897</v>
       </c>
       <c r="F10" t="n">
-        <v>69327.04598252726</v>
+        <v>69458.83336281638</v>
       </c>
     </row>
     <row r="11">
@@ -663,10 +663,10 @@
         <v>58855.67028222132</v>
       </c>
       <c r="E11" t="n">
-        <v>48215.65596716478</v>
+        <v>48230.29265288493</v>
       </c>
       <c r="F11" t="n">
-        <v>69339.04025284197</v>
+        <v>69469.70199333035</v>
       </c>
     </row>
     <row r="12">
@@ -683,10 +683,10 @@
         <v>58732.37304277992</v>
       </c>
       <c r="E12" t="n">
-        <v>48282.64742885152</v>
+        <v>47758.29012278216</v>
       </c>
       <c r="F12" t="n">
-        <v>69420.21989717378</v>
+        <v>69835.101050307</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         <v>59137.89753777302</v>
       </c>
       <c r="E13" t="n">
-        <v>47832.27328807828</v>
+        <v>47922.06153342589</v>
       </c>
       <c r="F13" t="n">
-        <v>69691.38040626828</v>
+        <v>70135.99334314551</v>
       </c>
     </row>
     <row r="14">
@@ -723,10 +723,10 @@
         <v>59312.41613629988</v>
       </c>
       <c r="E14" t="n">
-        <v>48437.00391959375</v>
+        <v>48365.51941402793</v>
       </c>
       <c r="F14" t="n">
-        <v>70123.15277496482</v>
+        <v>70593.82309282936</v>
       </c>
     </row>
     <row r="15">
@@ -743,10 +743,10 @@
         <v>58972.23091518646</v>
       </c>
       <c r="E15" t="n">
-        <v>48751.69150682046</v>
+        <v>48397.12014874249</v>
       </c>
       <c r="F15" t="n">
-        <v>69641.93427419662</v>
+        <v>68892.27044860706</v>
       </c>
     </row>
     <row r="16">
@@ -763,10 +763,10 @@
         <v>60710.18123344988</v>
       </c>
       <c r="E16" t="n">
-        <v>50445.73587534851</v>
+        <v>50777.6396773146</v>
       </c>
       <c r="F16" t="n">
-        <v>71736.77387041981</v>
+        <v>71412.78362052575</v>
       </c>
     </row>
     <row r="17">
@@ -783,10 +783,10 @@
         <v>58533.46291326351</v>
       </c>
       <c r="E17" t="n">
-        <v>48095.98599350487</v>
+        <v>47734.51969654665</v>
       </c>
       <c r="F17" t="n">
-        <v>69068.49587327082</v>
+        <v>69317.13918301486</v>
       </c>
     </row>
     <row r="18">
@@ -803,10 +803,10 @@
         <v>61754.40233322486</v>
       </c>
       <c r="E18" t="n">
-        <v>51311.59609021369</v>
+        <v>50799.14829213914</v>
       </c>
       <c r="F18" t="n">
-        <v>71250.08162265661</v>
+        <v>71829.38721032866</v>
       </c>
     </row>
     <row r="19">
@@ -823,10 +823,10 @@
         <v>61989.41525026812</v>
       </c>
       <c r="E19" t="n">
-        <v>51011.39885539757</v>
+        <v>51307.72565665967</v>
       </c>
       <c r="F19" t="n">
-        <v>72661.64211494473</v>
+        <v>72986.20290221086</v>
       </c>
     </row>
     <row r="20">
@@ -843,10 +843,10 @@
         <v>61521.63257041975</v>
       </c>
       <c r="E20" t="n">
-        <v>50816.44896193677</v>
+        <v>51194.69912899421</v>
       </c>
       <c r="F20" t="n">
-        <v>72297.59709248522</v>
+        <v>72856.1766860038</v>
       </c>
     </row>
     <row r="21">
@@ -863,10 +863,10 @@
         <v>62211.21971873016</v>
       </c>
       <c r="E21" t="n">
-        <v>51618.66303057723</v>
+        <v>51873.23973332686</v>
       </c>
       <c r="F21" t="n">
-        <v>72861.77899163401</v>
+        <v>73573.72490906352</v>
       </c>
     </row>
     <row r="22">
@@ -883,10 +883,10 @@
         <v>62854.94676298166</v>
       </c>
       <c r="E22" t="n">
-        <v>52766.72363383756</v>
+        <v>52192.82535011065</v>
       </c>
       <c r="F22" t="n">
-        <v>72278.74087870905</v>
+        <v>73972.94544517371</v>
       </c>
     </row>
     <row r="23">
@@ -903,10 +903,10 @@
         <v>62547.02871092971</v>
       </c>
       <c r="E23" t="n">
-        <v>52062.24634648752</v>
+        <v>51109.73266085115</v>
       </c>
       <c r="F23" t="n">
-        <v>73504.55424551752</v>
+        <v>73044.64606398321</v>
       </c>
     </row>
     <row r="24">
@@ -923,10 +923,10 @@
         <v>62463.29621958614</v>
       </c>
       <c r="E24" t="n">
-        <v>51343.25753445843</v>
+        <v>51524.4169349907</v>
       </c>
       <c r="F24" t="n">
-        <v>72779.31785621519</v>
+        <v>74043.6083394241</v>
       </c>
     </row>
     <row r="25">
@@ -943,10 +943,10 @@
         <v>62917.47970726207</v>
       </c>
       <c r="E25" t="n">
-        <v>52490.41672413968</v>
+        <v>52585.6224665649</v>
       </c>
       <c r="F25" t="n">
-        <v>73222.92175229637</v>
+        <v>73928.20831389645</v>
       </c>
     </row>
     <row r="26">
@@ -963,10 +963,10 @@
         <v>63105.89799356698</v>
       </c>
       <c r="E26" t="n">
-        <v>52670.46066825606</v>
+        <v>52700.71415928954</v>
       </c>
       <c r="F26" t="n">
-        <v>74821.4022422517</v>
+        <v>73642.55149764531</v>
       </c>
     </row>
     <row r="27">
@@ -983,10 +983,10 @@
         <v>62610.9328315031</v>
       </c>
       <c r="E27" t="n">
-        <v>51696.21013026661</v>
+        <v>51672.21917064016</v>
       </c>
       <c r="F27" t="n">
-        <v>73561.94549094453</v>
+        <v>72618.89816184374</v>
       </c>
     </row>
     <row r="28">
@@ -1003,10 +1003,10 @@
         <v>64462.09601907629</v>
       </c>
       <c r="E28" t="n">
-        <v>54221.54559329551</v>
+        <v>53561.23938026051</v>
       </c>
       <c r="F28" t="n">
-        <v>75064.92534435596</v>
+        <v>75118.77710198757</v>
       </c>
     </row>
     <row r="29">
@@ -1023,10 +1023,10 @@
         <v>62080.05106056583</v>
       </c>
       <c r="E29" t="n">
-        <v>51037.16665791534</v>
+        <v>51940.89695296943</v>
       </c>
       <c r="F29" t="n">
-        <v>72804.12397678997</v>
+        <v>73242.67805984925</v>
       </c>
     </row>
   </sheetData>
